--- a/第二轮建模/简化数据/分社的书号需求.xlsx
+++ b/第二轮建模/简化数据/分社的书号需求.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-710" yWindow="4640" windowWidth="15330" windowHeight="4520"/>
+    <workbookView minimized="1" xWindow="-710" yWindow="4640" windowWidth="15330" windowHeight="4520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2001-2005年分配书号数、2006年申请书号数及相应课程" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2001-2005年分配书号数、2006年申请书号数及相应课程'!$D$7:$D$32</definedName>
@@ -319,6 +320,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>其中</t>
@@ -335,6 +337,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>课程均价</t>
@@ -351,6 +354,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>一栏表示</t>
@@ -367,6 +371,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出版社同一课程不同书目的价格均值（假定同一课程不同书目价格差别不大，同时销售量相近），该出版社在定价时保持对所有教材利润率同一，在此原则上制定教材单价。</t>
@@ -385,6 +390,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>为保持工作连续性和对各分社计划一定程度上的认可，</t>
@@ -401,6 +407,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出版社在分配书号时至少保证分给各分社申请数量的一半。</t>
@@ -415,6 +422,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>该数据中给出了</t>
@@ -431,6 +439,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年五年时间各门课程分得的书号个数，以及</t>
@@ -447,6 +456,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年各门课程提出的书号申请个数。</t>
@@ -457,9 +467,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -602,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,8 +667,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,26 +706,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82:I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,46 +1057,46 @@
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -1134,7 +1150,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1166,7 +1182,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1212,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1242,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1272,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1302,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1332,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1362,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1376,7 +1392,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1422,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1436,7 +1452,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
@@ -1468,7 +1484,7 @@
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1500,7 +1516,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1530,7 +1546,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1576,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1606,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1636,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1666,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1696,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1726,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1740,7 +1756,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1770,7 +1786,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
@@ -1801,7 +1817,7 @@
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1833,7 +1849,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1879,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1893,7 +1909,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1923,7 +1939,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
@@ -1953,7 +1969,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1999,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2029,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2059,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
@@ -2073,7 +2089,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
@@ -2103,7 +2119,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
@@ -2135,7 +2151,7 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="28" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2167,7 +2183,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
@@ -2197,7 +2213,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
@@ -2227,7 +2243,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2273,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
@@ -2287,7 +2303,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
@@ -2317,7 +2333,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
@@ -2347,7 +2363,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="2" t="s">
         <v>37</v>
       </c>
@@ -2377,7 +2393,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="2" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2423,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
@@ -2437,7 +2453,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="2" t="s">
         <v>83</v>
       </c>
@@ -2468,7 +2484,7 @@
       <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2500,7 +2516,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="2" t="s">
         <v>41</v>
       </c>
@@ -2530,7 +2546,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
@@ -2560,7 +2576,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="2" t="s">
         <v>43</v>
       </c>
@@ -2590,7 +2606,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
@@ -2620,7 +2636,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="2" t="s">
         <v>45</v>
       </c>
@@ -2650,7 +2666,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="2" t="s">
         <v>46</v>
       </c>
@@ -2680,7 +2696,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
@@ -2710,7 +2726,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="2" t="s">
         <v>83</v>
       </c>
@@ -2741,7 +2757,7 @@
       <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2773,7 +2789,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="2" t="s">
         <v>48</v>
       </c>
@@ -2803,7 +2819,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="2" t="s">
         <v>49</v>
       </c>
@@ -2833,7 +2849,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="2" t="s">
         <v>50</v>
       </c>
@@ -2863,7 +2879,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
         <v>51</v>
       </c>
@@ -2893,7 +2909,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
@@ -2923,7 +2939,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="2" t="s">
         <v>83</v>
       </c>
@@ -2954,7 +2970,7 @@
       <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2986,7 +3002,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="2" t="s">
         <v>54</v>
       </c>
@@ -3016,7 +3032,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="2" t="s">
         <v>55</v>
       </c>
@@ -3046,7 +3062,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="2" t="s">
         <v>56</v>
       </c>
@@ -3076,7 +3092,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="2" t="s">
         <v>57</v>
       </c>
@@ -3106,7 +3122,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="2" t="s">
         <v>58</v>
       </c>
@@ -3136,7 +3152,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="2" t="s">
         <v>83</v>
       </c>
@@ -3167,7 +3183,7 @@
       <c r="J74" s="18"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3199,7 +3215,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="2" t="s">
         <v>60</v>
       </c>
@@ -3229,7 +3245,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="2" t="s">
         <v>61</v>
       </c>
@@ -3259,7 +3275,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="2" t="s">
         <v>62</v>
       </c>
@@ -3289,7 +3305,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="2" t="s">
         <v>63</v>
       </c>
@@ -3319,7 +3335,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="2" t="s">
         <v>64</v>
       </c>
@@ -3349,7 +3365,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="2" t="s">
         <v>83</v>
       </c>
@@ -3381,7 +3397,7 @@
       <c r="J81" s="18"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3413,7 +3429,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="2" t="s">
         <v>66</v>
       </c>
@@ -3443,7 +3459,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="2" t="s">
         <v>67</v>
       </c>
@@ -3473,7 +3489,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
@@ -3503,7 +3519,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="2" t="s">
         <v>69</v>
       </c>
@@ -3533,7 +3549,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="2" t="s">
         <v>70</v>
       </c>
@@ -3563,7 +3579,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="6" t="s">
         <v>83</v>
       </c>
@@ -3600,6 +3616,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A68:A74"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A75:A81"/>
@@ -3607,11 +3628,6 @@
     <mergeCell ref="A19:A29"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A68:A74"/>
     <mergeCell ref="A30:A40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3619,4 +3635,508 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF65412-4799-4DF6-BBBA-030205F5AEF4}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>18</v>
+      </c>
+      <c r="B12" s="32">
+        <v>18</v>
+      </c>
+      <c r="C12" s="32">
+        <v>4</v>
+      </c>
+      <c r="D12" s="32">
+        <v>6</v>
+      </c>
+      <c r="E12" s="32">
+        <v>6</v>
+      </c>
+      <c r="F12" s="32">
+        <v>16</v>
+      </c>
+      <c r="G12" s="32">
+        <v>12</v>
+      </c>
+      <c r="H12" s="32">
+        <v>6</v>
+      </c>
+      <c r="I12" s="32">
+        <v>16</v>
+      </c>
+      <c r="J12" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>8</v>
+      </c>
+      <c r="B13" s="32">
+        <v>4</v>
+      </c>
+      <c r="C13" s="32">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>4</v>
+      </c>
+      <c r="E13" s="32">
+        <v>6</v>
+      </c>
+      <c r="F13" s="32">
+        <v>6</v>
+      </c>
+      <c r="G13" s="32">
+        <v>6</v>
+      </c>
+      <c r="H13" s="32">
+        <v>8</v>
+      </c>
+      <c r="I13" s="32">
+        <v>6</v>
+      </c>
+      <c r="J13" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="32">
+        <v>38</v>
+      </c>
+      <c r="C14" s="32">
+        <v>52</v>
+      </c>
+      <c r="D14" s="32">
+        <v>8</v>
+      </c>
+      <c r="E14" s="32">
+        <v>24</v>
+      </c>
+      <c r="F14" s="32">
+        <v>34</v>
+      </c>
+      <c r="G14" s="32">
+        <v>12</v>
+      </c>
+      <c r="H14" s="32">
+        <v>6</v>
+      </c>
+      <c r="I14" s="32">
+        <v>24</v>
+      </c>
+      <c r="J14" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>40</v>
+      </c>
+      <c r="B15" s="32">
+        <v>4</v>
+      </c>
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+      <c r="D15" s="32">
+        <v>22</v>
+      </c>
+      <c r="E15" s="32">
+        <v>8</v>
+      </c>
+      <c r="F15" s="32">
+        <v>16</v>
+      </c>
+      <c r="G15" s="32">
+        <v>6</v>
+      </c>
+      <c r="H15" s="32">
+        <v>6</v>
+      </c>
+      <c r="I15" s="32">
+        <v>10</v>
+      </c>
+      <c r="J15" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>4</v>
+      </c>
+      <c r="B16" s="32">
+        <v>10</v>
+      </c>
+      <c r="C16" s="32">
+        <v>8</v>
+      </c>
+      <c r="D16" s="32">
+        <v>10</v>
+      </c>
+      <c r="E16" s="32">
+        <v>6</v>
+      </c>
+      <c r="F16" s="32">
+        <v>8</v>
+      </c>
+      <c r="G16" s="32">
+        <v>12</v>
+      </c>
+      <c r="H16" s="32">
+        <v>14</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>18</v>
+      </c>
+      <c r="B17" s="32">
+        <v>4</v>
+      </c>
+      <c r="C17" s="32">
+        <v>10</v>
+      </c>
+      <c r="D17" s="32">
+        <v>16</v>
+      </c>
+      <c r="E17" s="32">
+        <v>4</v>
+      </c>
+      <c r="F17" s="32">
+        <v>8</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>4</v>
+      </c>
+      <c r="B18" s="32">
+        <v>4</v>
+      </c>
+      <c r="C18" s="32">
+        <v>4</v>
+      </c>
+      <c r="D18" s="32">
+        <v>4</v>
+      </c>
+      <c r="E18" s="32">
+        <v>4</v>
+      </c>
+      <c r="F18" s="32">
+        <v>10</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>8</v>
+      </c>
+      <c r="B19" s="32">
+        <v>8</v>
+      </c>
+      <c r="C19" s="32">
+        <v>8</v>
+      </c>
+      <c r="D19" s="32">
+        <v>8</v>
+      </c>
+      <c r="E19" s="32">
+        <v>4</v>
+      </c>
+      <c r="F19" s="32">
+        <v>4</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>8</v>
+      </c>
+      <c r="B20" s="32">
+        <v>10</v>
+      </c>
+      <c r="C20" s="32">
+        <v>8</v>
+      </c>
+      <c r="D20" s="32">
+        <v>6</v>
+      </c>
+      <c r="E20" s="32">
+        <v>4</v>
+      </c>
+      <c r="F20" s="32">
+        <v>4</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>